--- a/data/trans_camb/P7B_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7B_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,6</t>
+          <t>-6,49; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 5,51</t>
+          <t>-5,92; 5,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,89</t>
+          <t>-7,89; 2,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 4,59</t>
+          <t>-3,3; 6,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,83</t>
+          <t>-4,16; 4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,41</t>
+          <t>-4,7; 4,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,48</t>
+          <t>-3,39; 3,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,51</t>
+          <t>-3,2; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,09</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,75</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-4,8; 2,46</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 1,7</t>
+          <t>-4,46; 2,34</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-3,27%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
+          <t>-3,6%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 19,0</t>
+          <t>-19,1; 17,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 19,11</t>
+          <t>-16,59; 17,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 9,91</t>
+          <t>-23,15; 9,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 15,29</t>
+          <t>-9,19; 19,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 17,73</t>
+          <t>-11,16; 15,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 17,09</t>
+          <t>-13,45; 14,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 14,05</t>
+          <t>-9,72; 12,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 7,74</t>
+          <t>-9,34; 11,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 12,89</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 11,99</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 7,84</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-14,92; 5,57</t>
+          <t>-12,92; 7,69</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
+          <t>-0,7</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 8,53</t>
+          <t>-6,27; 7,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,44</t>
+          <t>-9,67; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 2,77</t>
+          <t>-10,06; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 9,34</t>
+          <t>-4,03; 7,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 7,67</t>
+          <t>-2,52; 9,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,61</t>
+          <t>-4,0; 7,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 7,67</t>
+          <t>-3,41; 5,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 12,91</t>
+          <t>-3,64; 4,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 5,82</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 5,15</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; 3,66</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 8,3</t>
+          <t>-5,22; 3,45</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>-5,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>-8,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-2,08%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
+          <t>-1,94%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 25,57</t>
+          <t>-15,58; 22,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 17,13</t>
+          <t>-24,5; 12,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 8,59</t>
+          <t>-25,33; 11,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 28,07</t>
+          <t>-10,21; 22,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 23,26</t>
+          <t>-6,18; 28,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 25,95</t>
+          <t>-10,1; 21,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 23,16</t>
+          <t>-9,07; 15,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 38,11</t>
+          <t>-9,39; 13,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 17,21</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 15,11</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; 10,8</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 24,05</t>
+          <t>-13,41; 10,29</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-3,22</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 14,97</t>
+          <t>-12,15; 17,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 10,97</t>
+          <t>-15,07; 11,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 12,1</t>
+          <t>-15,37; 13,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 9,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 9,41</t>
+          <t>-11,84; 7,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 7,74</t>
+          <t>-14,65; 3,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 5,16</t>
+          <t>-8,0; 10,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 6,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 9,04</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-10,72; 6,43</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-11,41; 4,71</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-11,03; 5,69</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,31%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,02%</t>
+          <t>-15,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,36%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-7,63%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-11,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-10,21%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,47; 61,63</t>
+          <t>-32,88; 70,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 47,29</t>
+          <t>-40,46; 46,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 50,13</t>
+          <t>-42,03; 57,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,46; 32,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 35,67</t>
+          <t>-32,09; 27,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 28,49</t>
+          <t>-38,84; 15,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 19,57</t>
+          <t>-22,47; 35,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,71; 23,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 32,67</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-29,48; 23,01</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-31,42; 17,6</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-30,66; 22,22</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
           <t>-1,25</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,64</t>
+          <t>-4,0; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,06</t>
+          <t>-5,59; 2,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,51</t>
+          <t>-6,7; 1,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,74</t>
+          <t>-2,15; 4,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,64</t>
+          <t>-2,31; 4,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,52</t>
+          <t>-3,09; 3,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,52</t>
+          <t>-2,39; 3,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,02</t>
+          <t>-2,64; 2,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 3,39</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 2,68</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; 1,5</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 1,82</t>
+          <t>-3,84; 1,54</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-3,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>-8,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-3,67%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-2,84%</t>
+          <t>-3,68%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 14,86</t>
+          <t>-11,74; 15,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 9,69</t>
+          <t>-15,78; 8,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 4,8</t>
+          <t>-19,05; 5,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 11,88</t>
+          <t>-6,04; 14,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 14,16</t>
+          <t>-6,37; 12,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 13,69</t>
+          <t>-8,44; 10,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 10,73</t>
+          <t>-6,67; 11,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 9,04</t>
+          <t>-7,34; 8,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 10,42</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 8,43</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 4,63</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 5,46</t>
+          <t>-10,77; 4,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
